--- a/cpr.xlsx
+++ b/cpr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LammariOm\websheetprjt\new1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LammariOm\websheetprjt\cpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BAADD0-93F1-47E7-8D44-CEB38884BBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E48D04D-C954-4AF1-B038-DE79123D7D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B9D356B-8F4A-44DC-B120-0603307E2705}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="377">
   <si>
     <t>Nom Comm.</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>BETIXIM</t>
-  </si>
-  <si>
-    <t>C?FIXIME</t>
   </si>
   <si>
     <t>400MG</t>
@@ -1572,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655C699D-9F4D-4883-BC28-81A284F0C35F}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,22 +1782,22 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="3">
         <v>895</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,33 +1805,33 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>23</v>
@@ -1846,15 +1843,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -1871,13 +1868,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -1886,18 +1883,18 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -1906,58 +1903,58 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
         <v>61</v>
-      </c>
-      <c r="E16" t="s">
-        <v>62</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1966,61 +1963,61 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
       <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2037,13 +2034,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2060,10 +2057,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
         <v>79</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2080,56 +2077,56 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s">
         <v>81</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
         <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
       </c>
       <c r="F24" s="3">
         <v>453.4</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3">
         <v>804</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2146,7 +2143,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -2166,13 +2163,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>38</v>
@@ -2186,13 +2183,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
         <v>38</v>
@@ -2206,13 +2203,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
         <v>23</v>
@@ -2224,18 +2221,18 @@
         <v>453.4</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -2247,18 +2244,18 @@
         <v>804</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -2272,13 +2269,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
@@ -2287,15 +2284,15 @@
         <v>453.4</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -2312,76 +2309,76 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
         <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>84</v>
       </c>
       <c r="F36" s="3">
         <v>453.4</v>
       </c>
       <c r="G36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F37" s="3">
         <v>804</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
         <v>37</v>
@@ -2398,53 +2395,53 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
         <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>84</v>
       </c>
       <c r="F39" s="3">
         <v>453.4</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F40" s="3">
         <v>804</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
@@ -2464,13 +2461,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
@@ -2484,10 +2481,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -2499,35 +2496,35 @@
         <v>804</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
         <v>36</v>
       </c>
       <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
         <v>83</v>
-      </c>
-      <c r="D44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" t="s">
-        <v>84</v>
       </c>
       <c r="F44" s="3">
         <v>453.4</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
         <v>36</v>
@@ -2539,24 +2536,24 @@
         <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3">
         <v>804</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" t="s">
         <v>23</v>
@@ -2568,12 +2565,12 @@
         <v>280</v>
       </c>
       <c r="G46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -2591,12 +2588,12 @@
         <v>574</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -2611,12 +2608,12 @@
         <v>574</v>
       </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -2631,12 +2628,12 @@
         <v>574</v>
       </c>
       <c r="G49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -2654,12 +2651,12 @@
         <v>574</v>
       </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -2674,18 +2671,18 @@
         <v>574</v>
       </c>
       <c r="G51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
@@ -2697,153 +2694,153 @@
         <v>574</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
         <v>119</v>
-      </c>
-      <c r="D53" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" t="s">
-        <v>120</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
         <v>122</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>123</v>
-      </c>
-      <c r="E54" t="s">
-        <v>124</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
         <v>126</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>127</v>
       </c>
-      <c r="C55" t="s">
-        <v>128</v>
-      </c>
       <c r="D55" t="s">
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="3">
         <v>714</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" t="s">
         <v>130</v>
       </c>
-      <c r="B56" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
       <c r="D56" t="s">
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="3">
         <v>1143</v>
       </c>
       <c r="G56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s">
         <v>133</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>134</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
         <v>135</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" t="s">
-        <v>136</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
         <v>138</v>
       </c>
-      <c r="B58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>139</v>
       </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" t="s">
         <v>141</v>
       </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
         <v>10</v>
@@ -2852,18 +2849,18 @@
         <v>280</v>
       </c>
       <c r="G59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2875,12 +2872,12 @@
         <v>574</v>
       </c>
       <c r="G60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2898,84 +2895,84 @@
         <v>196</v>
       </c>
       <c r="G61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" t="s">
         <v>147</v>
       </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
       <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" t="s">
         <v>83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s">
-        <v>84</v>
       </c>
       <c r="F62" s="3">
         <v>453.4</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" t="s">
         <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F63" s="3">
         <v>804</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
         <v>149</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>150</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>151</v>
-      </c>
-      <c r="E64" t="s">
-        <v>152</v>
       </c>
       <c r="F64" s="3">
         <v>4015.2</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
         <v>150</v>
-      </c>
-      <c r="C65" t="s">
-        <v>151</v>
       </c>
       <c r="E65" t="s">
         <v>27</v>
@@ -2984,12 +2981,12 @@
         <v>2151</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3004,12 +3001,12 @@
         <v>196</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -3027,12 +3024,12 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -3070,12 +3067,12 @@
         <v>196</v>
       </c>
       <c r="G69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3098,7 +3095,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -3121,53 +3118,53 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
         <v>163</v>
-      </c>
-      <c r="B72" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" t="s">
-        <v>164</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s">
         <v>166</v>
       </c>
-      <c r="B73" t="s">
-        <v>167</v>
-      </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -3182,78 +3179,78 @@
         <v>574</v>
       </c>
       <c r="G74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
         <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" t="s">
-        <v>84</v>
       </c>
       <c r="F75" s="3">
         <v>200</v>
       </c>
       <c r="G75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
         <v>171</v>
       </c>
-      <c r="B76" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>172</v>
-      </c>
-      <c r="E76" t="s">
-        <v>173</v>
       </c>
       <c r="F76" s="3">
         <v>1999.8</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
         <v>150</v>
       </c>
-      <c r="C77" t="s">
-        <v>151</v>
-      </c>
       <c r="E77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" s="3">
         <v>4302</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s">
         <v>176</v>
-      </c>
-      <c r="B78" t="s">
-        <v>177</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -3262,21 +3259,21 @@
         <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F78" s="3">
         <v>900</v>
       </c>
       <c r="G78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" t="s">
         <v>176</v>
-      </c>
-      <c r="B79" t="s">
-        <v>177</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -3288,52 +3285,52 @@
         <v>1800</v>
       </c>
       <c r="G79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C80" t="s">
         <v>150</v>
       </c>
-      <c r="C80" t="s">
-        <v>151</v>
-      </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F80" s="3">
         <v>4302</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
         <v>172</v>
-      </c>
-      <c r="E81" t="s">
-        <v>173</v>
       </c>
       <c r="F81" s="3">
         <v>1999.8</v>
       </c>
       <c r="G81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3345,7 +3342,7 @@
         <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F82" s="3">
         <v>210</v>
@@ -3356,10 +3353,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" t="s">
         <v>185</v>
-      </c>
-      <c r="B83" t="s">
-        <v>186</v>
       </c>
       <c r="C83" t="s">
         <v>9</v>
@@ -3368,7 +3365,7 @@
         <v>23</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F83" s="3">
         <v>196</v>
@@ -3379,10 +3376,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -3399,13 +3396,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
@@ -3419,139 +3416,139 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F86" s="3">
         <v>1866.48</v>
       </c>
       <c r="G86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" t="s">
         <v>191</v>
-      </c>
-      <c r="D87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" t="s">
-        <v>192</v>
       </c>
       <c r="F87" s="3">
         <v>5599.44</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F88" s="3">
         <v>4015.2</v>
       </c>
       <c r="G88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" t="s">
         <v>150</v>
       </c>
-      <c r="C89" t="s">
-        <v>151</v>
-      </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F89" s="3">
         <v>4302</v>
       </c>
       <c r="G89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" t="s">
         <v>150</v>
       </c>
-      <c r="C90" t="s">
-        <v>151</v>
-      </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F90" s="3">
         <v>4302</v>
       </c>
       <c r="G90" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="3">
         <v>1999.8</v>
       </c>
       <c r="G91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
         <v>201</v>
-      </c>
-      <c r="B92" t="s">
-        <v>202</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -3568,7 +3565,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
@@ -3588,7 +3585,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -3606,12 +3603,12 @@
         <v>196</v>
       </c>
       <c r="G94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -3634,7 +3631,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -3654,107 +3651,107 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C97" t="s">
         <v>150</v>
       </c>
-      <c r="C97" t="s">
-        <v>151</v>
-      </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F97" s="3">
         <v>4302</v>
       </c>
       <c r="G97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C98" t="s">
+        <v>171</v>
+      </c>
+      <c r="E98" t="s">
         <v>172</v>
-      </c>
-      <c r="E98" t="s">
-        <v>173</v>
       </c>
       <c r="F98" s="3">
         <v>1999.8</v>
       </c>
       <c r="G98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C99" t="s">
         <v>150</v>
       </c>
-      <c r="C99" t="s">
-        <v>151</v>
-      </c>
       <c r="E99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F99" s="3">
         <v>4302</v>
       </c>
       <c r="G99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" t="s">
         <v>212</v>
       </c>
-      <c r="B100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C100" t="s">
-        <v>213</v>
-      </c>
       <c r="E100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F100" s="3">
         <v>1999.8</v>
       </c>
       <c r="G100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" t="s">
         <v>150</v>
       </c>
-      <c r="C101" t="s">
-        <v>151</v>
-      </c>
       <c r="E101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F101" s="3">
         <v>4302</v>
       </c>
       <c r="G101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -3774,7 +3771,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -3789,12 +3786,12 @@
         <v>196</v>
       </c>
       <c r="G103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -3834,7 +3831,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -3857,7 +3854,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -3877,10 +3874,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C108" t="s">
         <v>9</v>
@@ -3889,18 +3886,18 @@
         <v>23</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F108" s="3">
         <v>196</v>
       </c>
       <c r="G108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -3920,7 +3917,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -3940,7 +3937,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -3960,7 +3957,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -3980,7 +3977,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -3995,12 +3992,12 @@
         <v>392</v>
       </c>
       <c r="G113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -4015,12 +4012,12 @@
         <v>392</v>
       </c>
       <c r="G114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -4035,12 +4032,12 @@
         <v>196</v>
       </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4058,12 +4055,12 @@
         <v>196</v>
       </c>
       <c r="G116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -4081,64 +4078,64 @@
         <v>196</v>
       </c>
       <c r="G117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
         <v>235</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>236</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" t="s">
         <v>237</v>
-      </c>
-      <c r="D118" t="s">
-        <v>46</v>
-      </c>
-      <c r="E118" t="s">
-        <v>238</v>
       </c>
       <c r="F118" s="3">
         <v>1024</v>
       </c>
       <c r="G118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
         <v>235</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>236</v>
       </c>
-      <c r="C119" t="s">
-        <v>237</v>
-      </c>
       <c r="D119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E119" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F119" s="3">
         <v>2048</v>
       </c>
       <c r="G119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
         <v>235</v>
       </c>
-      <c r="B120" t="s">
-        <v>236</v>
-      </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -4150,18 +4147,18 @@
         <v>2200</v>
       </c>
       <c r="G120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
@@ -4170,104 +4167,104 @@
         <v>2200</v>
       </c>
       <c r="G121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F122" s="3">
         <v>1024</v>
       </c>
       <c r="G122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C123" t="s">
+        <v>247</v>
+      </c>
+      <c r="E123" t="s">
         <v>248</v>
-      </c>
-      <c r="E123" t="s">
-        <v>249</v>
       </c>
       <c r="F123" s="3">
         <v>2048</v>
       </c>
       <c r="G123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
         <v>127</v>
       </c>
-      <c r="C124" t="s">
-        <v>128</v>
-      </c>
       <c r="D124" t="s">
         <v>23</v>
       </c>
       <c r="E124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F124" s="3">
         <v>714</v>
       </c>
       <c r="G124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D125" t="s">
         <v>23</v>
       </c>
       <c r="E125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F125" s="3">
         <v>1143</v>
       </c>
       <c r="G125" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" t="s">
         <v>254</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>255</v>
-      </c>
-      <c r="C126" t="s">
-        <v>256</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
@@ -4276,18 +4273,18 @@
         <v>714</v>
       </c>
       <c r="G126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
         <v>254</v>
       </c>
-      <c r="B127" t="s">
-        <v>255</v>
-      </c>
       <c r="C127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
@@ -4296,12 +4293,12 @@
         <v>1143</v>
       </c>
       <c r="G127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -4324,7 +4321,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -4344,13 +4341,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
         <v>261</v>
       </c>
-      <c r="B130" t="s">
-        <v>262</v>
-      </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
@@ -4359,190 +4356,190 @@
         <v>0</v>
       </c>
       <c r="G130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" t="s">
         <v>264</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
         <v>265</v>
-      </c>
-      <c r="E131" t="s">
-        <v>266</v>
       </c>
       <c r="F131" s="3">
         <v>1074</v>
       </c>
       <c r="G131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" t="s">
         <v>267</v>
       </c>
-      <c r="C133" t="s">
+      <c r="E133" t="s">
         <v>268</v>
-      </c>
-      <c r="E133" t="s">
-        <v>269</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s">
+        <v>69</v>
+      </c>
+      <c r="C134" t="s">
         <v>271</v>
       </c>
-      <c r="B134" t="s">
-        <v>70</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+      <c r="E134" t="s">
         <v>272</v>
-      </c>
-      <c r="D134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" t="s">
-        <v>273</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D135" t="s">
         <v>23</v>
       </c>
       <c r="E135" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
       </c>
       <c r="G135" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D136" t="s">
         <v>23</v>
       </c>
       <c r="E136" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
       </c>
       <c r="G136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" t="s">
+        <v>69</v>
+      </c>
+      <c r="C137" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" t="s">
+        <v>45</v>
+      </c>
+      <c r="E137" t="s">
         <v>278</v>
-      </c>
-      <c r="B137" t="s">
-        <v>70</v>
-      </c>
-      <c r="C137" t="s">
-        <v>45</v>
-      </c>
-      <c r="D137" t="s">
-        <v>46</v>
-      </c>
-      <c r="E137" t="s">
-        <v>279</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C138" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E138" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>282</v>
+      </c>
+      <c r="B139" t="s">
         <v>283</v>
-      </c>
-      <c r="B139" t="s">
-        <v>284</v>
       </c>
       <c r="C139" t="s">
         <v>17</v>
@@ -4559,13 +4556,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B140" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" t="s">
         <v>285</v>
-      </c>
-      <c r="C140" t="s">
-        <v>286</v>
       </c>
       <c r="E140" t="s">
         <v>38</v>
@@ -4579,7 +4576,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -4588,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F141" s="3">
         <v>210</v>
@@ -4599,13 +4596,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E142" t="s">
         <v>27</v>
@@ -4614,18 +4611,18 @@
         <v>999.9</v>
       </c>
       <c r="G142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C143" t="s">
         <v>150</v>
-      </c>
-      <c r="C143" t="s">
-        <v>151</v>
       </c>
       <c r="E143" t="s">
         <v>27</v>
@@ -4634,178 +4631,178 @@
         <v>2151</v>
       </c>
       <c r="G143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s">
+        <v>149</v>
+      </c>
+      <c r="C144" t="s">
         <v>150</v>
       </c>
-      <c r="C144" t="s">
-        <v>151</v>
-      </c>
       <c r="E144" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F144" s="3">
         <v>4302</v>
       </c>
       <c r="G144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F145" s="3">
         <v>1999.8</v>
       </c>
       <c r="G145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E146" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F146" s="3">
         <v>1999.8</v>
       </c>
       <c r="G146" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C147" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E147" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F147" s="3">
         <v>4302</v>
       </c>
       <c r="G147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F148" s="3">
         <v>1999.8</v>
       </c>
       <c r="G148" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F149" s="3">
         <v>4302</v>
       </c>
       <c r="G149" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B150" t="s">
         <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D150" t="s">
         <v>23</v>
       </c>
       <c r="E150" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F150" s="3">
         <v>804</v>
       </c>
       <c r="G150" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
         <v>36</v>
       </c>
       <c r="C151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" t="s">
+        <v>23</v>
+      </c>
+      <c r="E151" t="s">
         <v>83</v>
-      </c>
-      <c r="D151" t="s">
-        <v>23</v>
-      </c>
-      <c r="E151" t="s">
-        <v>84</v>
       </c>
       <c r="F151" s="3">
         <v>453.4</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -4817,7 +4814,7 @@
         <v>23</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F152" s="3">
         <v>98</v>
@@ -4828,7 +4825,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -4863,7 +4860,7 @@
         <v>23</v>
       </c>
       <c r="E154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F154" s="3">
         <v>392</v>
@@ -4874,7 +4871,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -4897,36 +4894,36 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>303</v>
+      </c>
+      <c r="B156" t="s">
         <v>304</v>
       </c>
-      <c r="B156" t="s">
-        <v>305</v>
-      </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
       </c>
       <c r="E156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F156" s="3">
         <v>804</v>
       </c>
       <c r="G156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B157" t="s">
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -4938,15 +4935,15 @@
         <v>804</v>
       </c>
       <c r="G157" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
         <v>37</v>
@@ -4963,96 +4960,96 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B159" t="s">
+        <v>149</v>
+      </c>
+      <c r="C159" t="s">
         <v>150</v>
       </c>
-      <c r="C159" t="s">
+      <c r="E159" t="s">
         <v>151</v>
-      </c>
-      <c r="E159" t="s">
-        <v>152</v>
       </c>
       <c r="F159" s="3">
         <v>4015.2</v>
       </c>
       <c r="G159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E160" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F160" s="3">
         <v>1866.48</v>
       </c>
       <c r="G160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
       </c>
       <c r="E161" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F161" s="3">
         <v>4302</v>
       </c>
       <c r="G161" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B162" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C162" t="s">
+        <v>171</v>
+      </c>
+      <c r="E162" t="s">
         <v>172</v>
-      </c>
-      <c r="E162" t="s">
-        <v>173</v>
       </c>
       <c r="F162" s="3">
         <v>1999.8</v>
       </c>
       <c r="G162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
@@ -5064,18 +5061,18 @@
         <v>574</v>
       </c>
       <c r="G163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>
@@ -5087,12 +5084,12 @@
         <v>280</v>
       </c>
       <c r="G164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
@@ -5107,18 +5104,18 @@
         <v>410</v>
       </c>
       <c r="G165" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E166" t="s">
         <v>38</v>
@@ -5127,18 +5124,18 @@
         <v>200</v>
       </c>
       <c r="G166" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E167" t="s">
         <v>18</v>
@@ -5147,12 +5144,12 @@
         <v>280</v>
       </c>
       <c r="G167" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
@@ -5167,12 +5164,12 @@
         <v>574</v>
       </c>
       <c r="G168" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
@@ -5187,32 +5184,32 @@
         <v>1230</v>
       </c>
       <c r="G169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>317</v>
+      </c>
+      <c r="B170" t="s">
         <v>318</v>
       </c>
-      <c r="B170" t="s">
-        <v>319</v>
-      </c>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E170" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F170" s="3">
         <v>200</v>
       </c>
       <c r="G170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -5235,36 +5232,36 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>321</v>
+      </c>
+      <c r="B172" t="s">
         <v>322</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
+        <v>130</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
+      </c>
+      <c r="E172" t="s">
         <v>323</v>
-      </c>
-      <c r="C172" t="s">
-        <v>131</v>
-      </c>
-      <c r="D172" t="s">
-        <v>23</v>
-      </c>
-      <c r="E172" t="s">
-        <v>324</v>
       </c>
       <c r="F172" s="3">
         <v>800.1</v>
       </c>
       <c r="G172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>321</v>
+      </c>
+      <c r="B173" t="s">
         <v>322</v>
       </c>
-      <c r="B173" t="s">
-        <v>323</v>
-      </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D173" t="s">
         <v>23</v>
@@ -5276,41 +5273,41 @@
         <v>3200.4</v>
       </c>
       <c r="G173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C174" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D174" t="s">
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F174" s="3">
         <v>499.8</v>
       </c>
       <c r="G174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C175" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D175" t="s">
         <v>23</v>
@@ -5322,64 +5319,64 @@
         <v>1999.2</v>
       </c>
       <c r="G175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>329</v>
+      </c>
+      <c r="B176" t="s">
         <v>330</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>331</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>45</v>
+      </c>
+      <c r="E176" t="s">
         <v>332</v>
-      </c>
-      <c r="D176" t="s">
-        <v>46</v>
-      </c>
-      <c r="E176" t="s">
-        <v>333</v>
       </c>
       <c r="F176" s="3">
         <v>0</v>
       </c>
       <c r="G176" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" t="s">
         <v>335</v>
       </c>
-      <c r="B177" t="s">
-        <v>336</v>
-      </c>
       <c r="C177" t="s">
+        <v>44</v>
+      </c>
+      <c r="D177" t="s">
         <v>45</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>46</v>
-      </c>
-      <c r="E177" t="s">
-        <v>47</v>
       </c>
       <c r="F177" s="3">
         <v>0</v>
       </c>
       <c r="G177" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C178" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D178" t="s">
         <v>23</v>
@@ -5391,18 +5388,18 @@
         <v>0</v>
       </c>
       <c r="G178" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>339</v>
+      </c>
+      <c r="B179" t="s">
         <v>340</v>
       </c>
-      <c r="B179" t="s">
-        <v>341</v>
-      </c>
       <c r="C179" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E179" t="s">
         <v>38</v>
@@ -5411,18 +5408,18 @@
         <v>714</v>
       </c>
       <c r="G179" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C180" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E180" t="s">
         <v>38</v>
@@ -5431,35 +5428,35 @@
         <v>1143</v>
       </c>
       <c r="G180" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>343</v>
+      </c>
+      <c r="B181" t="s">
         <v>344</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>345</v>
       </c>
-      <c r="C181" t="s">
-        <v>346</v>
-      </c>
       <c r="D181" t="s">
         <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F181" s="3">
         <v>900</v>
       </c>
       <c r="G181" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -5474,207 +5471,207 @@
         <v>196</v>
       </c>
       <c r="G182" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C183" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
         <v>23</v>
       </c>
       <c r="E183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F183" s="3">
         <v>0</v>
       </c>
       <c r="G183" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B184" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
+        <v>44</v>
+      </c>
+      <c r="D184" t="s">
         <v>45</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>46</v>
-      </c>
-      <c r="E184" t="s">
-        <v>47</v>
       </c>
       <c r="F184" s="3">
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D185" t="s">
         <v>23</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F185" s="3">
         <v>1074</v>
       </c>
       <c r="G185" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B186" t="s">
+        <v>149</v>
+      </c>
+      <c r="C186" t="s">
         <v>150</v>
       </c>
-      <c r="C186" t="s">
+      <c r="E186" t="s">
         <v>151</v>
-      </c>
-      <c r="E186" t="s">
-        <v>152</v>
       </c>
       <c r="F186" s="3">
         <v>4015.2</v>
       </c>
       <c r="G186" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E187" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F187" s="3">
         <v>1866.48</v>
       </c>
       <c r="G187" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F188" s="3">
         <v>574</v>
       </c>
       <c r="G188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E189" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F189" s="3">
         <v>200</v>
       </c>
       <c r="G189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B190" t="s">
+        <v>126</v>
+      </c>
+      <c r="C190" t="s">
         <v>127</v>
       </c>
-      <c r="C190" t="s">
-        <v>128</v>
-      </c>
       <c r="D190" t="s">
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F190" s="3">
         <v>714</v>
       </c>
       <c r="G190" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B191" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C191" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D191" t="s">
         <v>23</v>
       </c>
       <c r="E191" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F191" s="3">
         <v>1143</v>
       </c>
       <c r="G191" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -5683,7 +5680,7 @@
         <v>9</v>
       </c>
       <c r="E192" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F192" s="3">
         <v>392</v>
@@ -5694,7 +5691,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -5717,88 +5714,88 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>364</v>
+      </c>
+      <c r="B194" t="s">
         <v>365</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>366</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E194" t="s">
         <v>367</v>
-      </c>
-      <c r="D194" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" t="s">
-        <v>368</v>
       </c>
       <c r="F194" s="3">
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" t="s">
+        <v>365</v>
+      </c>
+      <c r="C195" t="s">
         <v>370</v>
       </c>
-      <c r="B195" t="s">
-        <v>366</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>23</v>
+      </c>
+      <c r="E195" t="s">
         <v>371</v>
-      </c>
-      <c r="D195" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" t="s">
-        <v>372</v>
       </c>
       <c r="F195" s="3">
         <v>0</v>
       </c>
       <c r="G195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>373</v>
+      </c>
+      <c r="B196" t="s">
+        <v>126</v>
+      </c>
+      <c r="C196" t="s">
+        <v>127</v>
+      </c>
+      <c r="E196" t="s">
         <v>374</v>
-      </c>
-      <c r="B196" t="s">
-        <v>127</v>
-      </c>
-      <c r="C196" t="s">
-        <v>128</v>
-      </c>
-      <c r="E196" t="s">
-        <v>375</v>
       </c>
       <c r="F196" s="3">
         <v>285.60000000000002</v>
       </c>
       <c r="G196" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B197" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C197" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E197" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F197" s="3">
         <v>1143</v>
       </c>
       <c r="G197" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
